--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -406,9 +406,6 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -420,6 +417,9 @@
     <xf numFmtId="44" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -726,7 +726,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -751,15 +751,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -823,7 +823,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <f>B7+C7+D7+E7+F7</f>
         <v>2160</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="H8" s="6">
         <v>14</v>
       </c>
-      <c r="I8" s="42"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="11"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <f>B9+C9+D9+E9+F9</f>
         <v>3924.9300000000003</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="H10" s="17">
         <v>21</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="13"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="41">
+      <c r="I11" s="40">
         <f>B11+C11+D11+E11+F11</f>
         <v>5812.5</v>
       </c>
@@ -936,7 +936,7 @@
       <c r="H12" s="17">
         <v>28</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="11"/>
@@ -948,7 +948,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="6"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="41">
+      <c r="I13" s="40">
         <f>B13+C13+D13+E13+F13</f>
         <v>825</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="43"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="13"/>
@@ -973,7 +973,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="6"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="41">
+      <c r="I15" s="40">
         <f>B15</f>
         <v>0</v>
       </c>
@@ -986,36 +986,36 @@
         <v>11</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <f>I7+I9+I11+I13+I15</f>
         <v>12722.43</v>
       </c>
     </row>
     <row r="18" spans="7:9">
-      <c r="I18" s="37"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="7:9">
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <v>25179.75</v>
       </c>
     </row>
     <row r="20" spans="7:9">
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="38">
         <v>11700</v>
       </c>
     </row>
     <row r="21" spans="7:9">
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="40">
+      <c r="H21" s="34"/>
+      <c r="I21" s="39">
         <f>I17+I19+I20</f>
         <v>49602.18</v>
       </c>
@@ -1057,15 +1057,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1319,15 +1319,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1579,15 +1579,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -726,7 +726,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="I20" s="38">
-        <v>11700</v>
+        <v>11997</v>
       </c>
     </row>
     <row r="21" spans="7:9">
@@ -1017,7 +1017,7 @@
       <c r="H21" s="34"/>
       <c r="I21" s="39">
         <f>I17+I19+I20</f>
-        <v>49602.18</v>
+        <v>49899.18</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="FEBRERO" sheetId="1" r:id="rId1"/>
-    <sheet name="MARZO" sheetId="2" r:id="rId2"/>
+    <sheet name="MARZO" sheetId="2" r:id="rId1"/>
+    <sheet name="FEBRERO" sheetId="1" r:id="rId2"/>
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
     <sheet name="JUNIO" sheetId="5" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>L</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>VENTA GLOBAL DE MES</t>
+  </si>
+  <si>
+    <t>24 santa</t>
+  </si>
+  <si>
+    <t>25 santa</t>
+  </si>
+  <si>
+    <t>26 santa</t>
   </si>
 </sst>
 </file>
@@ -329,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,6 +429,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -723,9 +733,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="44">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75">
+      <c r="B4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>6</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="23">
+        <f>B7+C7+D7+E7+F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15">
+        <v>12</v>
+      </c>
+      <c r="H8" s="15">
+        <v>13</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="23">
+        <f>B9+C9+D9+E9+F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="5">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15">
+        <v>19</v>
+      </c>
+      <c r="H10" s="15">
+        <v>20</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="23">
+        <f>B11+C11+D11+E11+F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="7">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="15">
+        <v>27</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="23">
+        <f>B13+C13+D13+E13+F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="5">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="23">
+        <f>B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="7:9" ht="15.75">
+      <c r="G17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
+        <f>I7+I9+I11+I13+I15</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1026,268 +1302,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="15">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>6</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="23">
-        <f>B7+C7+D7+E7+F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="7">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7">
-        <v>11</v>
-      </c>
-      <c r="G8" s="15">
-        <v>12</v>
-      </c>
-      <c r="H8" s="15">
-        <v>13</v>
-      </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="23">
-        <f>B9+C9+D9+E9+F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="5">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15">
-        <v>19</v>
-      </c>
-      <c r="H10" s="15">
-        <v>20</v>
-      </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="23">
-        <f>B11+C11+D11+E11+F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="7">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7">
-        <v>23</v>
-      </c>
-      <c r="E12" s="8">
-        <v>24</v>
-      </c>
-      <c r="F12" s="7">
-        <v>25</v>
-      </c>
-      <c r="G12" s="15">
-        <v>26</v>
-      </c>
-      <c r="H12" s="15">
-        <v>27</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="23">
-        <f>B13+C13+D13+E13+F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="5">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5">
-        <v>31</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="23">
-        <f>B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="7:9" ht="15.75">
-      <c r="G17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20">
-        <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>L</t>
   </si>
@@ -426,10 +426,10 @@
     <xf numFmtId="44" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -733,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -758,20 +758,20 @@
         <v>9</v>
       </c>
       <c r="H2" s="25"/>
-      <c r="I2" s="44">
+      <c r="I2" s="43">
         <v>113000</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -824,14 +824,16 @@
     <row r="7" spans="1:9">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10">
+        <v>412.5</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
       <c r="H7" s="17"/>
       <c r="I7" s="23">
         <f>B7+C7+D7+E7+F7</f>
-        <v>0</v>
+        <v>412.5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -986,7 +988,31 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>0</v>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9">
+      <c r="H19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="37">
+        <v>2309.4</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="H20" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="39">
+        <f>I17+I19+I20</f>
+        <v>2721.9</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1028,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G19" sqref="G19:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1027,15 +1053,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1333,15 +1359,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1593,15 +1619,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>L</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>26 santa</t>
+  </si>
+  <si>
+    <t>Porcentaje del total de meta</t>
+  </si>
+  <si>
+    <t>21 festivo</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,6 +439,8 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -763,15 +777,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -911,8 +925,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="7">
-        <v>21</v>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="8">
         <v>22</v>
@@ -981,7 +995,7 @@
     <row r="16" spans="1:9">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:12" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -991,28 +1005,39 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="19" spans="7:9">
+    <row r="19" spans="7:12">
       <c r="H19" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="37">
-        <v>2309.4</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9">
+        <v>7736.4</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12">
       <c r="H20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="7:9">
+      <c r="I20" s="38">
+        <v>2139</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="7:12">
       <c r="G21" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="39">
         <f>I17+I19+I20</f>
-        <v>2721.9</v>
+        <v>10287.9</v>
+      </c>
+      <c r="J21" s="45">
+        <f>I21*100/I2</f>
+        <v>9.104336283185841</v>
       </c>
     </row>
   </sheetData>
@@ -1053,15 +1078,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1359,15 +1384,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1619,15 +1644,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>L</t>
   </si>
@@ -86,10 +86,22 @@
     <t>26 santa</t>
   </si>
   <si>
-    <t>Porcentaje del total de meta</t>
-  </si>
-  <si>
     <t>21 festivo</t>
+  </si>
+  <si>
+    <t>Meta Semanal</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Porcentaje Meta de Venta</t>
+  </si>
+  <si>
+    <t>META GLOBAL:</t>
+  </si>
+  <si>
+    <t>Porcentaje Meta de Venta Global</t>
   </si>
 </sst>
 </file>
@@ -156,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +280,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,11 +370,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,15 +464,56 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,18 +813,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:14">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -773,21 +842,27 @@
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="43">
+        <v>11500</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="43">
         <v>113000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="1:14" ht="18.75">
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,8 +887,14 @@
       <c r="I5" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -834,8 +915,10 @@
         <v>6</v>
       </c>
       <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10">
@@ -849,8 +932,15 @@
         <f>B7+C7+D7+E7+F7</f>
         <v>412.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="49">
+        <v>2300</v>
+      </c>
+      <c r="K7" s="50">
+        <f>(I7*100)/J7</f>
+        <v>17.934782608695652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -873,8 +963,10 @@
         <v>13</v>
       </c>
       <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="51"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
@@ -886,8 +978,15 @@
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="49">
+        <v>2875</v>
+      </c>
+      <c r="K9" s="52">
+        <f>((I9+I7)*100)/(J7+J9)</f>
+        <v>7.9710144927536231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -910,23 +1009,38 @@
         <v>20</v>
       </c>
       <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="51"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="13">
+        <v>5310</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1650</v>
+      </c>
+      <c r="F11" s="13">
+        <v>348.75</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="17"/>
       <c r="I11" s="23">
         <f>B11+C11+D11+E11+F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>7308.75</v>
+      </c>
+      <c r="J11" s="49">
+        <v>2875</v>
+      </c>
+      <c r="K11" s="52">
+        <f>((I11+I9+I7)*100)/(J7+J9+J11)</f>
+        <v>95.91614906832298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8">
         <v>22</v>
@@ -947,9 +1061,13 @@
         <v>27</v>
       </c>
       <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="11"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
       <c r="E13" s="14"/>
@@ -960,8 +1078,15 @@
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="49">
+        <v>1150</v>
+      </c>
+      <c r="K13" s="52">
+        <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
+        <v>83.926630434782609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -978,8 +1103,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="51"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -991,58 +1118,93 @@
         <f>B15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="49">
+        <v>2300</v>
+      </c>
+      <c r="K15" s="52">
+        <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
+        <v>67.141304347826093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="7:12" ht="15.75">
+      <c r="J16" s="51"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+    </row>
+    <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>412.5</v>
-      </c>
-    </row>
-    <row r="19" spans="7:12">
+        <v>7721.25</v>
+      </c>
+      <c r="J17" s="54">
+        <f>J7+J9+J11+J13+J15</f>
+        <v>11500</v>
+      </c>
+      <c r="K17" s="53"/>
+      <c r="L17" s="55">
+        <f>I17*100/J17</f>
+        <v>67.141304347826093</v>
+      </c>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57"/>
+    </row>
+    <row r="19" spans="7:14">
       <c r="H19" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="37">
-        <v>7736.4</v>
-      </c>
-    </row>
-    <row r="20" spans="7:12">
+        <v>9578.4</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14">
       <c r="H20" s="33" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="38">
-        <v>2139</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-    </row>
-    <row r="21" spans="7:12">
+        <v>4840.5</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+    </row>
+    <row r="21" spans="7:14">
       <c r="G21" s="34" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="39">
         <f>I17+I19+I20</f>
-        <v>10287.9</v>
-      </c>
-      <c r="J21" s="45">
-        <f>I21*100/I2</f>
-        <v>9.104336283185841</v>
-      </c>
+        <v>22140.15</v>
+      </c>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="62">
+        <f>(I21*100)/L2</f>
+        <v>19.593053097345134</v>
+      </c>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1078,15 +1240,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1384,15 +1546,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1644,15 +1806,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ABRIL" sheetId="3" r:id="rId3"/>
     <sheet name="MAYO" sheetId="4" r:id="rId4"/>
     <sheet name="JUNIO" sheetId="5" r:id="rId5"/>
+    <sheet name="Seguimientos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>L</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>Porcentaje Meta de Venta Global</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Hechas</t>
   </si>
 </sst>
 </file>
@@ -168,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +299,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +394,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,9 +483,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,6 +497,10 @@
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,7 +510,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,13 +528,24 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -519,8 +558,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFF3300"/>
       <color rgb="FF003300"/>
       <color rgb="FFFFFF66"/>
     </mruColors>
@@ -815,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -852,15 +891,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -887,10 +926,10 @@
       <c r="I5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="45" t="s">
         <v>24</v>
       </c>
     </row>
@@ -915,8 +954,8 @@
         <v>6</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="9"/>
@@ -932,10 +971,10 @@
         <f>B7+C7+D7+E7+F7</f>
         <v>412.5</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="48">
         <v>2300</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="49">
         <f>(I7*100)/J7</f>
         <v>17.934782608695652</v>
       </c>
@@ -963,8 +1002,8 @@
         <v>13</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="48"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="11"/>
@@ -978,10 +1017,10 @@
         <f>B9+C9+D9+E9+F9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <v>2875</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="51">
         <f>((I9+I7)*100)/(J7+J9)</f>
         <v>7.9710144927536231</v>
       </c>
@@ -1009,8 +1048,8 @@
         <v>20</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="48"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="13"/>
@@ -1030,10 +1069,10 @@
         <f>B11+C11+D11+E11+F11</f>
         <v>7308.75</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="48">
         <v>2875</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="51">
         <f>((I11+I9+I7)*100)/(J7+J9+J11)</f>
         <v>95.91614906832298</v>
       </c>
@@ -1061,8 +1100,8 @@
         <v>27</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="48"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="11">
@@ -1078,10 +1117,10 @@
         <f>B13+C13+D13+E13+F13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="48">
         <v>1150</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="51">
         <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
         <v>83.926630434782609</v>
       </c>
@@ -1103,8 +1142,8 @@
       <c r="G14" s="6"/>
       <c r="H14" s="17"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="48"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="13"/>
@@ -1118,23 +1157,23 @@
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="48">
         <v>2300</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="51">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
         <v>67.141304347826093</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="I16" s="22"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="59" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="64"/>
     </row>
     <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
@@ -1145,17 +1184,17 @@
         <f>I7+I9+I11+I13+I15</f>
         <v>7721.25</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="53">
         <f>J7+J9+J11+J13+J15</f>
         <v>11500</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="55">
+      <c r="K17" s="52"/>
+      <c r="L17" s="56">
         <f>I17*100/J17</f>
         <v>67.141304347826093</v>
       </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="19" spans="7:14">
       <c r="H19" s="32" t="s">
@@ -1172,13 +1211,13 @@
       <c r="I20" s="38">
         <v>4840.5</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59" t="s">
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="64"/>
     </row>
     <row r="21" spans="7:14">
       <c r="G21" s="34" t="s">
@@ -1189,14 +1228,14 @@
         <f>I17+I19+I20</f>
         <v>22140.15</v>
       </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="62">
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="59">
         <f>(I21*100)/L2</f>
         <v>19.593053097345134</v>
       </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1240,15 +1279,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1546,15 +1585,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1806,15 +1845,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -2048,4 +2087,119 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="12" width="11.42578125" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="C3" s="72">
+        <v>23</v>
+      </c>
+      <c r="D3" s="72">
+        <v>24</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="70">
+        <v>107</v>
+      </c>
+      <c r="D4" s="70">
+        <v>106</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="68"/>
+      <c r="B5" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="70">
+        <v>19</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="71">
+        <v>84</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="69"/>
+      <c r="B7" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -498,55 +498,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -891,15 +891,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1169,11 +1169,11 @@
       <c r="I16" s="22"/>
       <c r="J16" s="50"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="63"/>
-      <c r="N16" s="64"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="70"/>
     </row>
     <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
@@ -1189,12 +1189,12 @@
         <v>11500</v>
       </c>
       <c r="K17" s="52"/>
-      <c r="L17" s="56">
+      <c r="L17" s="62">
         <f>I17*100/J17</f>
         <v>67.141304347826093</v>
       </c>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
     </row>
     <row r="19" spans="7:14">
       <c r="H19" s="32" t="s">
@@ -1213,11 +1213,11 @@
       </c>
       <c r="J20" s="54"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="63"/>
-      <c r="N20" s="64"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
     </row>
     <row r="21" spans="7:14">
       <c r="G21" s="34" t="s">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="59">
+      <c r="L21" s="65">
         <f>(I21*100)/L2</f>
         <v>19.593053097345134</v>
       </c>
-      <c r="M21" s="60"/>
-      <c r="N21" s="61"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1279,15 +1279,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1585,15 +1585,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1845,15 +1845,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -2094,105 +2094,109 @@
   <dimension ref="A3:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="12" width="11.42578125" style="65"/>
+    <col min="3" max="12" width="11.42578125" style="55"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12">
-      <c r="C3" s="72">
+      <c r="C3" s="60">
         <v>23</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="60">
         <v>24</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="58">
         <v>107</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="58">
         <v>106</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="68"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="58">
         <v>19</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="59">
         <v>84</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="D6" s="59">
+        <v>45</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="69"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="C7" s="59">
+        <v>41</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1107,22 +1107,26 @@
       <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12">
+        <v>1359</v>
+      </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14">
+        <v>825</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="6"/>
       <c r="H13" s="17"/>
       <c r="I13" s="23">
         <f>B13+C13+D13+E13+F13</f>
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="J13" s="48">
         <v>1150</v>
       </c>
       <c r="K13" s="51">
         <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
-        <v>83.926630434782609</v>
+        <v>107.66576086956522</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1162,7 +1166,7 @@
       </c>
       <c r="K15" s="51">
         <f>((I15+I13+I11+I9+I7)*100)/(J11+J13+J15+J9+J7)</f>
-        <v>67.141304347826093</v>
+        <v>86.132608695652181</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1182,7 +1186,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20">
         <f>I7+I9+I11+I13+I15</f>
-        <v>7721.25</v>
+        <v>9905.25</v>
       </c>
       <c r="J17" s="53">
         <f>J7+J9+J11+J13+J15</f>
@@ -1191,7 +1195,7 @@
       <c r="K17" s="52"/>
       <c r="L17" s="62">
         <f>I17*100/J17</f>
-        <v>67.141304347826093</v>
+        <v>86.132608695652181</v>
       </c>
       <c r="M17" s="63"/>
       <c r="N17" s="64"/>
@@ -1226,13 +1230,13 @@
       <c r="H21" s="34"/>
       <c r="I21" s="39">
         <f>I17+I19+I20</f>
-        <v>22140.15</v>
+        <v>24324.15</v>
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="54"/>
       <c r="L21" s="65">
         <f>(I21*100)/L2</f>
-        <v>19.593053097345134</v>
+        <v>21.525796460176991</v>
       </c>
       <c r="M21" s="66"/>
       <c r="N21" s="67"/>
@@ -2093,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2109,7 +2113,9 @@
       <c r="D3" s="60">
         <v>24</v>
       </c>
-      <c r="E3" s="60"/>
+      <c r="E3" s="60">
+        <v>25</v>
+      </c>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
@@ -2131,7 +2137,9 @@
       <c r="D4" s="58">
         <v>106</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="58">
+        <v>73</v>
+      </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -2171,7 +2179,9 @@
       <c r="D6" s="59">
         <v>45</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="59">
+        <v>21</v>
+      </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11655" windowHeight="6915" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MARZO" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>L</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Hechas</t>
+  </si>
+  <si>
+    <t>Contactos Asignados</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,6 +518,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,6 +565,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -891,15 +913,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -934,6 +956,9 @@
       </c>
     </row>
     <row r="6" spans="1:14">
+      <c r="A6">
+        <v>9</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
@@ -978,8 +1003,14 @@
         <f>(I7*100)/J7</f>
         <v>17.934782608695652</v>
       </c>
+      <c r="M7">
+        <v>3018.9</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8">
+        <v>10</v>
+      </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -1024,8 +1055,14 @@
         <f>((I9+I7)*100)/(J7+J9)</f>
         <v>7.9710144927536231</v>
       </c>
+      <c r="M9">
+        <v>8995.5</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
+      <c r="A10">
+        <v>11</v>
+      </c>
       <c r="B10" s="5">
         <v>14</v>
       </c>
@@ -1076,8 +1113,14 @@
         <f>((I11+I9+I7)*100)/(J7+J9+J11)</f>
         <v>95.91614906832298</v>
       </c>
+      <c r="M11">
+        <v>10422.75</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="A12">
+        <v>12</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1128,8 +1171,14 @@
         <f>((I13+I11+I9+I7)*100)/(J9+J11+J13+J7)</f>
         <v>107.66576086956522</v>
       </c>
+      <c r="M13">
+        <v>6436.5</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="5">
         <v>28</v>
       </c>
@@ -1173,11 +1222,11 @@
       <c r="I16" s="22"/>
       <c r="J16" s="50"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="69"/>
-      <c r="N16" s="70"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75"/>
     </row>
     <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
@@ -1193,19 +1242,19 @@
         <v>11500</v>
       </c>
       <c r="K17" s="52"/>
-      <c r="L17" s="62">
+      <c r="L17" s="67">
         <f>I17*100/J17</f>
         <v>86.132608695652181</v>
       </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="69"/>
     </row>
     <row r="19" spans="7:14">
       <c r="H19" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="37">
-        <v>9578.4</v>
+        <v>12813.9</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -1213,15 +1262,15 @@
         <v>17</v>
       </c>
       <c r="I20" s="38">
-        <v>4840.5</v>
+        <v>5857.5</v>
       </c>
       <c r="J20" s="54"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="75"/>
     </row>
     <row r="21" spans="7:14">
       <c r="G21" s="34" t="s">
@@ -1230,16 +1279,16 @@
       <c r="H21" s="34"/>
       <c r="I21" s="39">
         <f>I17+I19+I20</f>
-        <v>24324.15</v>
+        <v>28576.65</v>
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="65">
+      <c r="L21" s="70">
         <f>(I21*100)/L2</f>
-        <v>21.525796460176991</v>
-      </c>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
+        <v>25.289070796460177</v>
+      </c>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1255,18 +1304,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:I21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1282,18 +1332,18 @@
       <c r="H2" s="25"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="61" t="s">
+    <row r="4" spans="1:11" ht="18.75">
+      <c r="B4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1369,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1343,7 +1396,7 @@
       </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>1367</v>
@@ -1359,8 +1412,14 @@
         <f>B7+C7+D7+E7+F7</f>
         <v>2160</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="65">
+        <v>14098.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="7">
         <v>8</v>
       </c>
@@ -1384,7 +1443,7 @@
       </c>
       <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="B9" s="11"/>
       <c r="C9" s="12">
         <v>1037.43</v>
@@ -1402,8 +1461,14 @@
         <f>B9+C9+D9+E9+F9</f>
         <v>3924.9300000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="65">
+        <v>10628.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1427,7 +1492,7 @@
       </c>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
@@ -1445,8 +1510,14 @@
         <f>B11+C11+D11+E11+F11</f>
         <v>5812.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="65">
+        <v>16053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>8</v>
+      </c>
       <c r="B12" s="7">
         <v>22</v>
       </c>
@@ -1470,7 +1541,7 @@
       </c>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -1484,8 +1555,14 @@
         <f>B13+C13+D13+E13+F13</f>
         <v>825</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="65">
+        <v>8822.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>9</v>
+      </c>
       <c r="B14" s="5">
         <v>29</v>
       </c>
@@ -1497,7 +1574,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="42"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1509,11 +1586,12 @@
         <f>B15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="65"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="7:9" ht="15.75">
+    <row r="17" spans="7:11" ht="15.75">
       <c r="G17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1523,10 +1601,10 @@
         <v>12722.43</v>
       </c>
     </row>
-    <row r="18" spans="7:9">
+    <row r="18" spans="7:11">
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="7:9">
+    <row r="19" spans="7:11">
       <c r="H19" s="32" t="s">
         <v>16</v>
       </c>
@@ -1534,7 +1612,7 @@
         <v>25179.75</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
+    <row r="20" spans="7:11">
       <c r="H20" s="33" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1620,7 @@
         <v>11997</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
+    <row r="21" spans="7:11">
       <c r="G21" s="34" t="s">
         <v>18</v>
       </c>
@@ -1550,6 +1628,10 @@
       <c r="I21" s="39">
         <f>I17+I19+I20</f>
         <v>49899.18</v>
+      </c>
+      <c r="K21" s="65">
+        <f>K7+K9+K11+K13</f>
+        <v>49602.18</v>
       </c>
     </row>
   </sheetData>
@@ -1589,15 +1671,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1849,15 +1931,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -2095,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L7"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2106,6 +2188,11 @@
     <col min="3" max="12" width="11.42578125" style="55"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:12">
+      <c r="F2" s="55" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:12">
       <c r="C3" s="60">
         <v>23</v>
@@ -2116,8 +2203,12 @@
       <c r="E3" s="60">
         <v>25</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="60">
+        <v>28</v>
+      </c>
+      <c r="G3" s="60">
+        <v>29</v>
+      </c>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
       <c r="J3" s="60"/>
@@ -2125,7 +2216,7 @@
       <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="56" t="s">
@@ -2140,8 +2231,12 @@
       <c r="E4" s="58">
         <v>73</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="58">
+        <v>81</v>
+      </c>
+      <c r="G4" s="58">
+        <v>76</v>
+      </c>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
@@ -2149,7 +2244,7 @@
       <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="56" t="s">
         <v>29</v>
       </c>
@@ -2157,7 +2252,9 @@
         <v>19</v>
       </c>
       <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="58">
+        <v>41</v>
+      </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
@@ -2167,51 +2264,119 @@
       <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58">
+        <v>192</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C7" s="59">
         <v>84</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D7" s="59">
         <v>45</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E7" s="59">
         <v>21</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="72"/>
-      <c r="B7" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="59">
-        <v>41</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="F7" s="59">
+        <v>30</v>
+      </c>
+      <c r="G7" s="59">
+        <v>45</v>
+      </c>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
     </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="77"/>
+      <c r="B8" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="59">
+        <v>41</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59">
+        <v>31</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59">
+        <v>120</v>
+      </c>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="63">
+        <v>272</v>
+      </c>
+      <c r="C13" s="55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="64">
+        <v>269</v>
+      </c>
+      <c r="C14" s="55">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -531,6 +531,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,9 +568,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,15 +913,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1222,11 +1222,11 @@
       <c r="I16" s="22"/>
       <c r="J16" s="50"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="73" t="s">
+      <c r="L16" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
     </row>
     <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
@@ -1242,12 +1242,12 @@
         <v>11500</v>
       </c>
       <c r="K17" s="52"/>
-      <c r="L17" s="67">
+      <c r="L17" s="68">
         <f>I17*100/J17</f>
         <v>86.132608695652181</v>
       </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="70"/>
     </row>
     <row r="19" spans="7:14">
       <c r="H19" s="32" t="s">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="J20" s="54"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="73" t="s">
+      <c r="L20" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
     </row>
     <row r="21" spans="7:14">
       <c r="G21" s="34" t="s">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="70">
+      <c r="L21" s="71">
         <f>(I21*100)/L2</f>
         <v>25.289070796460177</v>
       </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1333,15 +1333,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="18.75">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1671,15 +1671,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1931,15 +1931,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -2180,7 +2180,7 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2209,14 +2209,18 @@
       <c r="G3" s="60">
         <v>29</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="H3" s="60">
+        <v>30</v>
+      </c>
+      <c r="I3" s="60">
+        <v>31</v>
+      </c>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="56" t="s">
@@ -2238,33 +2242,43 @@
         <v>76</v>
       </c>
       <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="I4" s="58">
+        <v>82</v>
+      </c>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="56" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="58">
         <v>19</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="58">
+        <v>37</v>
+      </c>
       <c r="E5" s="58">
         <v>41</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="F5" s="58">
+        <v>20</v>
+      </c>
+      <c r="G5" s="58">
+        <v>31</v>
+      </c>
+      <c r="H5" s="58">
+        <v>13</v>
+      </c>
       <c r="I5" s="58"/>
       <c r="J5" s="58"/>
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="78"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="56" t="s">
         <v>31</v>
       </c>
@@ -2276,13 +2290,15 @@
         <v>192</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="I6" s="58">
+        <v>184</v>
+      </c>
       <c r="J6" s="58"/>
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="57" t="s">
@@ -2310,7 +2326,7 @@
       <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="57" t="s">
         <v>29</v>
       </c>
@@ -2321,9 +2337,15 @@
       <c r="E8" s="59">
         <v>31</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="F8" s="59">
+        <v>39</v>
+      </c>
+      <c r="G8" s="59">
+        <v>34</v>
+      </c>
+      <c r="H8" s="59">
+        <v>5</v>
+      </c>
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>L</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>4 de abril</t>
+  </si>
+  <si>
+    <t>Porcentaje de retraso</t>
+  </si>
+  <si>
+    <t>Reporte de Retrasos en tareas asignadas</t>
+  </si>
+  <si>
+    <t>Calcular el porcemtaje de llamadas hechas por semana</t>
+  </si>
+  <si>
+    <t>calcular el pocentaje de retraso</t>
   </si>
 </sst>
 </file>
@@ -126,7 +141,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +195,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -400,7 +429,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,6 +599,13 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2177,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L14"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2188,217 +2224,288 @@
     <col min="3" max="12" width="11.42578125" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
-      <c r="F2" s="55" t="s">
+    <row r="1" spans="1:14" ht="21">
+      <c r="F1" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="F4" s="55" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="C3" s="60">
+      <c r="G4" s="55">
+        <v>39.5</v>
+      </c>
+      <c r="K4" s="55">
+        <v>52.4</v>
+      </c>
+      <c r="L4" s="55">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5" s="60">
         <v>23</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D5" s="60">
         <v>24</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E5" s="60">
         <v>25</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F5" s="60">
         <v>28</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G5" s="79">
         <v>29</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H5" s="60">
         <v>30</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I5" s="60">
         <v>31</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="77" t="s">
+      <c r="J5" s="60">
+        <v>1</v>
+      </c>
+      <c r="K5" s="60">
+        <v>4</v>
+      </c>
+      <c r="L5" s="60"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C6" s="58">
         <v>107</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D6" s="58">
         <v>106</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E6" s="58">
         <v>73</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F6" s="58">
         <v>81</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G6" s="80">
         <v>76</v>
-      </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58">
-        <v>82</v>
-      </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="77"/>
-      <c r="B5" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="58">
-        <v>19</v>
-      </c>
-      <c r="D5" s="58">
-        <v>37</v>
-      </c>
-      <c r="E5" s="58">
-        <v>41</v>
-      </c>
-      <c r="F5" s="58">
-        <v>20</v>
-      </c>
-      <c r="G5" s="58">
-        <v>31</v>
-      </c>
-      <c r="H5" s="58">
-        <v>13</v>
-      </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="66"/>
-      <c r="B6" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58">
-        <v>192</v>
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="58">
+        <v>82</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58">
+        <v>96</v>
+      </c>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="77"/>
+      <c r="B7" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="58">
+        <v>19</v>
+      </c>
+      <c r="D7" s="58">
+        <v>37</v>
+      </c>
+      <c r="E7" s="58">
+        <v>41</v>
+      </c>
+      <c r="F7" s="58">
+        <v>20</v>
+      </c>
+      <c r="G7" s="80">
+        <v>31</v>
+      </c>
+      <c r="H7" s="58">
+        <v>13</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58">
+        <v>23</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="66"/>
+      <c r="B8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="80">
+        <v>192</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58">
         <v>184</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="78" t="s">
+      <c r="J8" s="58"/>
+      <c r="K8" s="58">
+        <v>183</v>
+      </c>
+      <c r="L8" s="58"/>
+      <c r="M8">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B9" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C9" s="59">
         <v>84</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D9" s="59">
         <v>45</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E9" s="59">
         <v>21</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F9" s="59">
         <v>30</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G9" s="80">
         <v>45</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="78"/>
-      <c r="B8" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="59">
-        <v>41</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59">
-        <v>31</v>
-      </c>
-      <c r="F8" s="59">
-        <v>39</v>
-      </c>
-      <c r="G8" s="59">
-        <v>34</v>
-      </c>
-      <c r="H8" s="59">
-        <v>5</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59">
-        <v>120</v>
       </c>
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
       <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="K9" s="59">
+        <v>71</v>
+      </c>
       <c r="L9" s="59"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="78"/>
+      <c r="B10" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="59">
+        <v>41</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59">
+        <v>31</v>
+      </c>
+      <c r="F10" s="59">
+        <v>39</v>
+      </c>
+      <c r="G10" s="80">
+        <v>34</v>
+      </c>
+      <c r="H10" s="59">
+        <v>19</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59">
+        <v>42</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="80">
+        <v>120</v>
+      </c>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59">
+        <v>110</v>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="G12" s="55">
+        <v>37.5</v>
+      </c>
+      <c r="K12" s="55">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="61" t="s">
+    <row r="14" spans="1:14">
+      <c r="D14" s="55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B15" s="63">
         <v>272</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C15" s="55">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="62" t="s">
+      <c r="D15" s="55">
+        <v>275</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B16" s="64">
         <v>269</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C16" s="55">
         <v>89</v>
+      </c>
+      <c r="D16" s="55">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -563,6 +563,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,13 +606,6 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -949,15 +949,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1258,11 +1258,11 @@
       <c r="I16" s="22"/>
       <c r="J16" s="50"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="76"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
     </row>
     <row r="17" spans="7:14" ht="15.75">
       <c r="G17" s="18" t="s">
@@ -1278,12 +1278,12 @@
         <v>11500</v>
       </c>
       <c r="K17" s="52"/>
-      <c r="L17" s="68">
+      <c r="L17" s="71">
         <f>I17*100/J17</f>
         <v>86.132608695652181</v>
       </c>
-      <c r="M17" s="69"/>
-      <c r="N17" s="70"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
     </row>
     <row r="19" spans="7:14">
       <c r="H19" s="32" t="s">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="J20" s="54"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="79"/>
     </row>
     <row r="21" spans="7:14">
       <c r="G21" s="34" t="s">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="71">
+      <c r="L21" s="74">
         <f>(I21*100)/L2</f>
         <v>25.289070796460177</v>
       </c>
-      <c r="M21" s="72"/>
-      <c r="N21" s="73"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1369,15 +1369,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="18.75">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1707,15 +1707,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -1967,15 +1967,15 @@
       <c r="I2" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18.75">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="B5" s="1" t="s">
@@ -2216,7 +2216,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2225,12 +2225,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21">
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="4" spans="1:14">
       <c r="F4" s="55" t="s">
@@ -2259,7 +2259,7 @@
       <c r="F5" s="60">
         <v>28</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="67">
         <v>29</v>
       </c>
       <c r="H5" s="60">
@@ -2277,7 +2277,7 @@
       <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="56" t="s">
@@ -2295,7 +2295,7 @@
       <c r="F6" s="58">
         <v>81</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="68">
         <v>76</v>
       </c>
       <c r="H6" s="58"/>
@@ -2309,7 +2309,7 @@
       <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="77"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="56" t="s">
         <v>29</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="F7" s="58">
         <v>20</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="68">
         <v>31</v>
       </c>
       <c r="H7" s="58">
@@ -2335,7 +2335,9 @@
       <c r="J7" s="58">
         <v>23</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="58">
+        <v>17</v>
+      </c>
       <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:14">
@@ -2347,7 +2349,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
-      <c r="G8" s="80">
+      <c r="G8" s="68">
         <v>192</v>
       </c>
       <c r="H8" s="58"/>
@@ -2364,7 +2366,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="81" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="57" t="s">
@@ -2382,7 +2384,7 @@
       <c r="F9" s="59">
         <v>30</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="68">
         <v>45</v>
       </c>
       <c r="H9" s="59"/>
@@ -2394,7 +2396,7 @@
       <c r="L9" s="59"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="78"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="57" t="s">
         <v>29</v>
       </c>
@@ -2408,13 +2410,15 @@
       <c r="F10" s="59">
         <v>39</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="68">
         <v>34</v>
       </c>
       <c r="H10" s="59">
-        <v>19</v>
-      </c>
-      <c r="I10" s="59"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="59">
+        <v>25</v>
+      </c>
       <c r="J10" s="59">
         <v>42</v>
       </c>
@@ -2429,7 +2433,7 @@
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
       <c r="F11" s="59"/>
-      <c r="G11" s="80">
+      <c r="G11" s="68">
         <v>120</v>
       </c>
       <c r="H11" s="59"/>

--- a/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
+++ b/Documentos Adicionales/Ventas Marisol Ornelas.xlsx
@@ -2216,7 +2216,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
